--- a/exposures/exposure_bioenergy.xlsx
+++ b/exposures/exposure_bioenergy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TCRiskIndia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beste\Documents\GitHub\TCRiskIndia\exposures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89665A21-D7DD-4BB9-B87E-8E23F09756E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7F7F83-E94B-4A7F-9DC1-D5FFC27E3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,10 +461,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D2:D20"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
